--- a/text_counter/data/result.xlsx
+++ b/text_counter/data/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>keywords</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>。</t>
+  </si>
+  <si>
+    <t>ます</t>
+  </si>
+  <si>
+    <t>、</t>
+  </si>
+  <si>
+    <t>いる</t>
+  </si>
+  <si>
+    <t>インスタレーション</t>
   </si>
   <si>
     <t>URL</t>
@@ -409,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,6 +470,26 @@
     <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -475,12 +507,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +522,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -567,7 +599,7 @@
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1160,6 +1192,302 @@
       </c>
       <c r="X9">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
